--- a/calc_SG90.xlsx
+++ b/calc_SG90.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="880" windowWidth="20480" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="7700" yWindow="820" windowWidth="20480" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>SG90の周波数</t>
     <rPh sb="5" eb="8">
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>http://akizukidenshi.com/download/ds/towerpro/SG90.pdf</t>
+  </si>
+  <si>
+    <t>↑実測値（逆算すると、0.712~2.543msec）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　可動域が180度以上あるので全体的に数度ずらすイメージ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※0度近辺だとメカ的にストッパーが掛かるようなので誤差が無さそうなレンジを使うようにする。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -671,6 +683,9 @@
         <f>D4/G9</f>
         <v>24.576000000000001</v>
       </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,49 +696,67 @@
         <f>D5/G9</f>
         <v>117.9648</v>
       </c>
+      <c r="D11">
+        <v>125</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>400</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
